--- a/SU - Suspension/Cost/cost_SU_A0300.xlsx
+++ b/SU - Suspension/Cost/cost_SU_A0300.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien Lazure\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphaël\Desktop\ECL\2A\EPSA\Cost_Report_Vulcanix\Cost_SU\Cost_Julien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75BFA9E-5623-4437-BC30-6F0044737B5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30345" windowHeight="19470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SU_A0300" sheetId="2" r:id="rId1"/>
@@ -152,7 +153,7 @@
     <definedName name="zefdv">#REF!</definedName>
     <definedName name="zer">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -583,7 +584,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -709,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -970,6 +971,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -986,7 +1009,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -1141,17 +1164,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Cost_Yellow" xfId="4"/>
+    <cellStyle name="Cost_Yellow" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
-    <cellStyle name="Monétaire 10 2" xfId="6"/>
+    <cellStyle name="Monétaire 10 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal_Sheet1" xfId="8"/>
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,20 +1195,191 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395377</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15215</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>269575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>75120</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>776985</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058684" y="4277591"/>
+          <a:ext cx="2919210" cy="3948546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44929</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568655" y="2385922"/>
+          <a:ext cx="3408393" cy="2556295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251842</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8689316" y="2441903"/>
+          <a:ext cx="2938611" cy="2203958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98844</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>690462</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C8C848-D8F4-4ED8-9809-B8873C7EA901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1202,8 +1398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12804835" y="4894531"/>
-          <a:ext cx="3441580" cy="4588773"/>
+          <a:off x="98844" y="269576"/>
+          <a:ext cx="8400321" cy="5939646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,105 +1411,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197689</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>489907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>377405</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4672</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6721415" y="3131747"/>
-          <a:ext cx="3666226" cy="2749670"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>233633</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>602291</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>184388</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8554529" y="3091131"/>
-          <a:ext cx="4187644" cy="3140733"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1327,6 +1425,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1359,7 +1462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1373,6 +1476,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1405,7 +1513,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1419,6 +1527,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1713,15 +1826,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,13 +3356,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="B11:B13" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="B14" location="SU_03005!B5" display="SU_03005!B5"/>
-    <hyperlink ref="B15" location="SU_03006!B5" display="SU_03006!B5"/>
-    <hyperlink ref="B11" location="SU_03002!B5" display="SU_03002!B5"/>
-    <hyperlink ref="B12" location="SU_03003!B5" display="SU_03003!B5"/>
-    <hyperlink ref="B13" location="SU_03004!B5" display="SU_03004!B5"/>
+    <hyperlink ref="B10" location="BR_01001" display="BR_01001" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11:B13" location="BR_01001" display="BR_01001" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" location="SU_03005!B5" display="SU_03005!B5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B15" location="SU_03006!B5" display="SU_03006!B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B11" location="SU_03002!B5" display="SU_03002!B5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B12" location="SU_03003!B5" display="SU_03003!B5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B13" location="SU_03004!B5" display="SU_03004!B5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3264,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3290,7 +3403,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_03005!B5" display="SU_03005"/>
+    <hyperlink ref="B1" location="SU_03005!B5" display="SU_03005" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3298,7 +3411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3324,7 +3437,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_03006!B5" display="SU_01006"/>
+    <hyperlink ref="B1" location="SU_03006!B5" display="SU_01006" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3332,15 +3445,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,8 +4088,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 1'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 1'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3993,14 +4106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4119,10 +4232,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="113" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="7"/>
@@ -4653,8 +4766,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 2'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 2'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4662,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -5128,14 +5241,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -5601,14 +5714,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -6239,15 +6352,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 5'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 5'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -6815,23 +6928,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 6'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 6'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,15 +6964,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_02001!B5" display="SU_02001!B5"/>
+    <hyperlink ref="B1" location="SU_02001!B5" display="SU_02001!B5" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6898,7 +7012,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_03002!B5" display="SU_03002"/>
+    <hyperlink ref="B1" location="SU_03002!B5" display="SU_03002" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
